--- a/1_FINAL450.xlsx
+++ b/1_FINAL450.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Complete Data Structure &amp; Algorithms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE2EEA-C216-4D0F-8B27-A4DD1484A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="8740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
   <si>
     <r>
       <rPr>
@@ -46,16 +51,10 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
     <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Find the maximum and minimum element in an array</t>
@@ -1432,7 +1431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1487,13 +1486,6 @@
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1551,19 +1543,20 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1584,27 +1577,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1619,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,7 +1609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1641,38 +1619,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,6 +1658,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1884,31 +1863,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.4140625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1919,6416 +1898,5049 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10">
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D20" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D24" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D29" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D30" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D32" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D35" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D36" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D38" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D39" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D40" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B42" s="12"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
         <v>2</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A44" s="13" t="s">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A46" s="13" t="s">
-        <v>43</v>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="13" t="s">
-        <v>43</v>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D47" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A48" s="13" t="s">
-        <v>43</v>
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D48" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A49" s="13" t="s">
-        <v>43</v>
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D49" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A50" s="13" t="s">
-        <v>43</v>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A50" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D50" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A51" s="13" t="s">
-        <v>43</v>
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D51" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A52" s="13" t="s">
-        <v>43</v>
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D52" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A53" s="13" t="s">
-        <v>43</v>
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D53" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A55" s="7">
         <v>3</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="D57" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="D58" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="D59" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="D60" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="D61" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D62" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D63" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D64" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D65" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D66" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D67" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D68" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D69" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D70" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D71" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D72" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D73" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="10">
+        <v>71</v>
+      </c>
+      <c r="D74" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D75" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D77" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D78" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D79" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D80" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D81" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D82" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D83" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D84" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D85" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D86" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D87" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D88" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D89" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D90" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D91" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D92" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D93" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D94" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D95" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D96" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D97" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D98" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A100" s="13">
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A100" s="12">
         <v>4</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="D102" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A102" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A103" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D103" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="D105" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D106" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D107" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A108" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D108" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D109" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D110" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D111" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="D112" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D113" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D114" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D115" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D116" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D117" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D118" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D119" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A120" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D120" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A121" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="D121" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="D122" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D123" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D124" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D125" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D126" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D127" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D128" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D129" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D130" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="D131" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D132" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="D133" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D134" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D135" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D136" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A138" s="13">
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A138" s="12">
         <v>5</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A139" s="13" t="s">
-        <v>135</v>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A139" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="D139" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A140" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D140" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A141" s="13" t="s">
-        <v>135</v>
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A141" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D141" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A142" s="13" t="s">
-        <v>135</v>
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A142" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="D142" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A143" s="13" t="s">
-        <v>135</v>
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A143" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D143" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A144" s="13" t="s">
-        <v>135</v>
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A144" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D144" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A145" s="13" t="s">
-        <v>135</v>
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A145" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D145" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A146" s="13" t="s">
-        <v>135</v>
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A146" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D146" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A147" s="13" t="s">
-        <v>135</v>
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A147" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D147" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A148" s="13" t="s">
-        <v>135</v>
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A148" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D148" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A149" s="13" t="s">
-        <v>135</v>
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A149" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D149" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A150" s="13" t="s">
-        <v>135</v>
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A150" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D150" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A151" s="13" t="s">
-        <v>135</v>
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A151" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D151" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A152" s="13" t="s">
-        <v>135</v>
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A152" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D152" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A153" s="13" t="s">
-        <v>135</v>
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A153" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D153" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A154" s="13" t="s">
-        <v>135</v>
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A154" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D154" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A155" s="13" t="s">
-        <v>135</v>
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A155" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D155" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A156" s="13" t="s">
-        <v>135</v>
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A156" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="D156" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A157" s="13" t="s">
-        <v>135</v>
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A157" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D157" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A158" s="13" t="s">
-        <v>135</v>
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A158" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="D158" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A159" s="13" t="s">
-        <v>135</v>
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A159" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D159" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A160" s="13" t="s">
-        <v>135</v>
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A160" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D160" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A161" s="13" t="s">
-        <v>135</v>
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A161" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D161" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A162" s="13" t="s">
-        <v>135</v>
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A162" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="D162" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A163" s="13" t="s">
-        <v>135</v>
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A163" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D163" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A164" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>4</v>
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A164" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="D164" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A165" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>4</v>
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A165" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="D165" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A166" s="13" t="s">
-        <v>135</v>
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A166" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D166" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A167" s="13" t="s">
-        <v>135</v>
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A167" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="D167" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A168" s="13" t="s">
-        <v>135</v>
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A168" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D168" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A169" s="13" t="s">
-        <v>135</v>
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A169" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="D169" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A170" s="13" t="s">
-        <v>135</v>
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A170" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="D170" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A171" s="13" t="s">
-        <v>135</v>
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A171" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D171" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A172" s="13" t="s">
-        <v>135</v>
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A172" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="D172" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A173" s="13" t="s">
-        <v>135</v>
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A173" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="D173" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A174" s="13" t="s">
-        <v>135</v>
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A174" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="D174" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A176" s="13">
+    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A176" s="12">
         <v>6</v>
       </c>
-      <c r="B176" s="12"/>
-      <c r="C176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A177" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>7</v>
+        <v>170</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D177" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A178" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D178" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A179" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>7</v>
+        <v>170</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="D179" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A180" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D180" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A181" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="D181" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A182" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="D182" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A183" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="D183" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A184" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="D184" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A185" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D185" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A186" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D186" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A187" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D187" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A188" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="D188" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A189" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="D189" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A190" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="D190" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A191" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="D191" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A192" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D192" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A193" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="D193" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A194" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="D194" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A195" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="D195" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A196" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="D196" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A197" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="D197" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A198" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="D198" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A199" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="D199" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A200" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="D200" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A201" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="D201" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A202" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D202" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A203" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D203" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="D204" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A205" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="D205" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A206" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D206" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A207" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D207" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A208" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D208" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A209" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D209" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A210" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D210" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A211" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="D211" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A212" s="13"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A213" s="13">
+    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A212" s="12"/>
+      <c r="B212" s="11"/>
+    </row>
+    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A213" s="12">
         <v>7</v>
       </c>
-      <c r="B213" s="12"/>
-      <c r="C213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A214" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A215" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D215" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>7</v>
+        <v>206</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D216" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A217" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D217" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A218" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D218" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A219" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="D219" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A220" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B220" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="D220" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A221" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="D221" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A222" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="D222" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A223" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="D223" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A224" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="D224" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A225" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="D225" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A226" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="D226" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A227" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D227" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A228" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="D228" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A229" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="D229" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A230" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="D230" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A231" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D231" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A232" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="D232" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A233" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="D233" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A234" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="D234" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A235" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D235" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B236" s="12"/>
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B236" s="11"/>
+    </row>
+    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>8</v>
       </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B237" s="11"/>
+    </row>
+    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A238" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A239" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B239" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D239" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A240" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="D240" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A241" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="D241" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A242" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="17">
+        <v>234</v>
+      </c>
+      <c r="D242" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A243" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="D243" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A244" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D244" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A245" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="D245" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A246" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="D246" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A247" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="D247" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A248" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D248" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A249" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="D249" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A250" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="D250" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A251" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="D251" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A252" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D252" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A253" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="D253" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A254" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="D254" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A255" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="D255" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A256" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D256" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A257" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="D257" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A258" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="D258" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A259" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="D259" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A260" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="D260" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A261" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="D261" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A262" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="D262" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A263" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D263" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A264" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="D264" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A265" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="D265" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A266" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="D266" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A267" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="D267" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A268" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="D268" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A269" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="D269" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A270" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="D270" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A271" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D271" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A272" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="D272" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B273" s="12"/>
-      <c r="C273" s="6"/>
-    </row>
-    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B273" s="11"/>
+    </row>
+    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>9</v>
       </c>
-      <c r="B274" s="12"/>
-      <c r="C274" s="6"/>
-    </row>
-    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B274" s="11"/>
+    </row>
+    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A275" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="D275" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A276" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D276" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A277" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="D277" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A278" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D278" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A279" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="D279" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A280" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="D280" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A281" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="D281" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A282" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="D282" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A283" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="D283" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A284" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="D284" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A285" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="D285" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A286" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="D286" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A287" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="D287" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A288" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="D288" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A289" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="D289" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A290" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="D290" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A291" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="D291" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A292" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="D292" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A293" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="D293" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B294" s="12"/>
-      <c r="C294" s="6"/>
-    </row>
-    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B294" s="11"/>
+    </row>
+    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>10</v>
       </c>
-      <c r="B295" s="12"/>
-      <c r="C295" s="6"/>
-    </row>
-    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B295" s="11"/>
+    </row>
+    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A296" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D296" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A297" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B297" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="D297" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A298" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B298" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A297" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A298" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D298" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A299" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="D299" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A300" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="D300" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A301" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="17">
+        <v>284</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D301" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A302" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>7</v>
+        <v>284</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="D302" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A303" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="D303" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A304" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="D304" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A305" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="D305" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A306" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="D306" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A307" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="D307" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A308" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="D308" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A309" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B309" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>4</v>
+        <v>284</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="D309" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A310" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="D310" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A311" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="D311" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A312" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="D312" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A313" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="D313" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A314" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="D314" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A315" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D315" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A316" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="D316" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A317" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="D317" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A318" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="D318" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A319" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="D319" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A320" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="D320" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A321" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D321" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A322" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D322" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A323" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="D323" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A324" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="D324" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A325" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="D325" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A326" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="D326" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A327" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="D327" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A328" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="D328" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A329" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D329" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A330" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="D330" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A331" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="D331" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A332" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="D332" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A333" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="D333" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B334" s="12"/>
-      <c r="C334" s="6"/>
-    </row>
-    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B334" s="11"/>
+    </row>
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A335" s="5">
         <v>11</v>
       </c>
-      <c r="B335" s="12"/>
-      <c r="C335" s="6"/>
-    </row>
-    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A336" s="13" t="s">
+      <c r="B335" s="11"/>
+    </row>
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A336" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D336" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A337" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B337" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="D337" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A338" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B338" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D336" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A337" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D337" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A338" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D338" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A339" s="13" t="s">
-        <v>325</v>
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A339" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="D339" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A340" s="13" t="s">
-        <v>325</v>
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A340" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="D340" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A341" s="13" t="s">
-        <v>325</v>
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A341" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="D341" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A342" s="13" t="s">
-        <v>325</v>
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A342" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="D342" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A343" s="13" t="s">
-        <v>325</v>
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A343" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="D343" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A344" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B344" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>4</v>
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A344" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="D344" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A345" s="13" t="s">
-        <v>325</v>
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A345" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="D345" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A346" s="13" t="s">
-        <v>325</v>
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A346" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="D346" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A347" s="13" t="s">
-        <v>325</v>
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A347" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="D347" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A348" s="13" t="s">
-        <v>325</v>
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A348" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="D348" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A349" s="13" t="s">
-        <v>325</v>
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A349" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="D349" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A350" s="13" t="s">
-        <v>325</v>
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A350" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="D350" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A351" s="13" t="s">
-        <v>325</v>
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A351" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="D351" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A352" s="13" t="s">
-        <v>325</v>
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A352" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="D352" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A353" s="13" t="s">
-        <v>325</v>
+    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A353" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="D353" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B354" s="12"/>
-      <c r="C354" s="6"/>
-    </row>
-    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B354" s="11"/>
+    </row>
+    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="5">
         <v>12</v>
       </c>
-      <c r="B355" s="12"/>
-      <c r="C355" s="6"/>
-    </row>
-    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A356" s="13" t="s">
+      <c r="B355" s="11"/>
+    </row>
+    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A356" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D356" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A357" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B357" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="D357" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A358" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B358" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C356" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D356" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A357" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B357" s="8" t="s">
+      <c r="D358" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A359" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B359" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C357" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D357" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A358" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B358" s="8" t="s">
+      <c r="D359" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A360" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B360" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C358" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D358" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A359" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B359" s="8" t="s">
+      <c r="D360" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A361" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B361" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C359" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D359" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A360" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C360" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D360" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A361" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D361" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A362" s="13" t="s">
-        <v>344</v>
+    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A362" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>4</v>
+        <v>349</v>
       </c>
       <c r="D362" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A363" s="13" t="s">
-        <v>344</v>
+    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A363" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="D363" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A364" s="13" t="s">
-        <v>344</v>
+    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A364" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="D364" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A365" s="13" t="s">
-        <v>344</v>
+    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A365" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="D365" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A366" s="13" t="s">
-        <v>344</v>
+    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A366" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="D366" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A367" s="13" t="s">
-        <v>344</v>
+    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A367" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="D367" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A368" s="13" t="s">
-        <v>344</v>
+    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A368" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D368" s="10">
+        <v>355</v>
+      </c>
+      <c r="D368" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A369" s="13" t="s">
-        <v>344</v>
+    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A369" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="D369" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A370" s="13" t="s">
-        <v>344</v>
+    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A370" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="D370" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A371" s="13" t="s">
-        <v>344</v>
+    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A371" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="D371" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A372" s="13" t="s">
-        <v>344</v>
+    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A372" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="D372" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A373" s="13" t="s">
-        <v>344</v>
+    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A373" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C373" s="9" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
       <c r="D373" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A374" s="13" t="s">
-        <v>344</v>
+    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A374" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D374" s="21">
+        <v>361</v>
+      </c>
+      <c r="D374" s="20">
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A375" s="13" t="s">
-        <v>344</v>
+    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A375" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>4</v>
+        <v>362</v>
       </c>
       <c r="D375" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A376" s="13" t="s">
-        <v>344</v>
+    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A376" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="D376" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A377" s="13" t="s">
-        <v>344</v>
+    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A377" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="D377" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A378" s="13" t="s">
-        <v>344</v>
+    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A378" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="D378" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A379" s="13" t="s">
-        <v>344</v>
+    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A379" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="D379" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A380" s="13" t="s">
-        <v>344</v>
+    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A380" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="D380" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A381" s="13" t="s">
-        <v>344</v>
+    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A381" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="D381" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A382" s="13" t="s">
-        <v>344</v>
+    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A382" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="D382" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A383" s="13" t="s">
-        <v>344</v>
+    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A383" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="D383" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A384" s="13" t="s">
-        <v>344</v>
+    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A384" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="D384" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A385" s="13" t="s">
-        <v>344</v>
+    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A385" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="D385" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A386" s="13" t="s">
-        <v>344</v>
+    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A386" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="D386" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A387" s="13" t="s">
-        <v>344</v>
+    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A387" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>4</v>
+        <v>374</v>
       </c>
       <c r="D387" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A388" s="13" t="s">
-        <v>344</v>
+    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A388" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="D388" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A389" s="13" t="s">
-        <v>344</v>
+    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A389" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C389" s="6" t="s">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="D389" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A390" s="13" t="s">
-        <v>344</v>
+    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A390" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C390" s="6" t="s">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="D390" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A391" s="13" t="s">
-        <v>344</v>
+    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A391" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="D391" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A392" s="13" t="s">
-        <v>344</v>
+    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A392" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="D392" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A393" s="13" t="s">
-        <v>344</v>
+    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A393" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="D393" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A394" s="13" t="s">
-        <v>344</v>
+    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A394" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C394" s="6" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="D394" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A395" s="13" t="s">
-        <v>344</v>
+    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A395" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="D395" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A396" s="13" t="s">
-        <v>344</v>
+    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A396" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="D396" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A397" s="13" t="s">
-        <v>344</v>
+    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A397" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>4</v>
+        <v>383</v>
       </c>
       <c r="D397" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A398" s="13" t="s">
-        <v>344</v>
+    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A398" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C398" s="6" t="s">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="D398" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A399" s="13" t="s">
-        <v>344</v>
+    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A399" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="D399" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B400" s="12"/>
-      <c r="C400" s="6"/>
-    </row>
-    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B400" s="11"/>
+    </row>
+    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A401" s="5">
         <v>13</v>
       </c>
-      <c r="B401" s="12"/>
-      <c r="C401" s="6"/>
-    </row>
-    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A402" s="13" t="s">
-        <v>388</v>
+      <c r="B401" s="11"/>
+    </row>
+    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A402" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="D402" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A403" s="13" t="s">
+    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A403" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B403" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C403" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D403" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A404" s="13" t="s">
-        <v>388</v>
+    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A404" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="D404" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A405" s="13" t="s">
-        <v>388</v>
+    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A405" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D405" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A406" s="13" t="s">
-        <v>388</v>
+    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A406" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="D406" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A407" s="13" t="s">
-        <v>388</v>
+    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A407" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="D407" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B408" s="12"/>
-      <c r="C408" s="6"/>
-    </row>
-    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B408" s="11"/>
+    </row>
+    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A409" s="5">
         <v>14</v>
       </c>
-      <c r="B409" s="12"/>
-      <c r="C409" s="6"/>
-    </row>
-    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B409" s="11"/>
+    </row>
+    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A410" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="D410" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A411" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B411" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="B411" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D411" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A412" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C412" s="6" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="D412" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A413" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="D413" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A414" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C414" s="6" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="D414" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A415" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C415" s="6" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="D415" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A416" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="D416" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A417" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="D417" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A418" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C418" s="6" t="s">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D418" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A419" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C419" s="6" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="D419" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A420" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C420" s="6" t="s">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="D420" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A421" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C421" s="6" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="D421" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A422" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C422" s="6" t="s">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="D422" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A423" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C423" s="6" t="s">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="D423" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A424" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C424" s="6" t="s">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="D424" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A425" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="D425" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A426" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="D426" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A427" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C427" s="6" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="D427" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A428" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="D428" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A429" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="D429" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A430" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C430" s="6" t="s">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="D430" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A431" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C431" s="6" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="D431" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A432" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="D432" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A433" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C433" s="6" t="s">
-        <v>4</v>
+        <v>415</v>
       </c>
       <c r="D433" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A434" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="D434" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A435" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="D435" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A436" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D436" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A437" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="D437" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A438" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="D438" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A439" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C439" s="6" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="D439" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A440" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="D440" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A441" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C441" s="6" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="D441" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A442" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>4</v>
+        <v>424</v>
       </c>
       <c r="D442" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A443" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C443" s="6" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="D443" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A444" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C444" s="6" t="s">
-        <v>4</v>
+        <v>426</v>
       </c>
       <c r="D444" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A445" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="D445" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A446" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C446" s="6" t="s">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="D446" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A447" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C447" s="6" t="s">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="D447" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A448" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="D448" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A449" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C449" s="6" t="s">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="D449" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A450" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="D450" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A451" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="D451" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A452" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C452" s="6" t="s">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="D452" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A453" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="D453" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A454" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="D454" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A455" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="D455" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A456" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="D456" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A457" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C457" s="6" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="D457" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A458" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="D458" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A459" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="D459" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A460" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="D460" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A461" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="D461" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A462" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C462" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="D462" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A463" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C463" s="6" t="s">
-        <v>4</v>
+        <v>445</v>
       </c>
       <c r="D463" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A464" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C464" s="6" t="s">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="D464" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A465" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C465" s="6" t="s">
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="D465" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A466" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C466" s="6" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="D466" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A467" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>4</v>
+        <v>449</v>
       </c>
       <c r="D467" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A468" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C468" s="6" t="s">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="D468" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A469" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>4</v>
+        <v>451</v>
       </c>
       <c r="D469" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B470" s="12"/>
-      <c r="C470" s="6"/>
-    </row>
-    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B470" s="11"/>
+    </row>
+    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A471" s="5">
         <v>15</v>
       </c>
-      <c r="B471" s="12"/>
-      <c r="C471" s="6"/>
-    </row>
-    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="B471" s="11"/>
+    </row>
+    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A472" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="D472" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A473" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B473" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B473" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D473" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A474" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C474" s="6" t="s">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="D474" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A475" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C475" s="6" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="D475" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A476" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C476" s="6" t="s">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="D476" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A477" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C477" s="6" t="s">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="D477" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A478" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>4</v>
+        <v>459</v>
       </c>
       <c r="D478" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A479" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C479" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="D479" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A480" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C480" s="6" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
       <c r="D480" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A481" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C481" s="6" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="D481" s="6">
         <v>10</v>
@@ -8336,451 +6948,451 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
-    <hyperlink ref="B98" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B105" r:id="rId93"/>
-    <hyperlink ref="B106" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId95"/>
-    <hyperlink ref="B108" r:id="rId96"/>
-    <hyperlink ref="B109" r:id="rId97"/>
-    <hyperlink ref="B110" r:id="rId98"/>
-    <hyperlink ref="B111" r:id="rId99"/>
-    <hyperlink ref="B112" r:id="rId100"/>
-    <hyperlink ref="B113" r:id="rId101"/>
-    <hyperlink ref="B114" r:id="rId102"/>
-    <hyperlink ref="B115" r:id="rId103"/>
-    <hyperlink ref="B116" r:id="rId104"/>
-    <hyperlink ref="B117" r:id="rId105"/>
-    <hyperlink ref="B118" r:id="rId106"/>
-    <hyperlink ref="B119" r:id="rId107"/>
-    <hyperlink ref="B120" r:id="rId108"/>
-    <hyperlink ref="B121" r:id="rId109"/>
-    <hyperlink ref="B122" r:id="rId110"/>
-    <hyperlink ref="B123" r:id="rId111"/>
-    <hyperlink ref="B124" r:id="rId112"/>
-    <hyperlink ref="B125" r:id="rId113"/>
-    <hyperlink ref="B126" r:id="rId114"/>
-    <hyperlink ref="B127" r:id="rId115"/>
-    <hyperlink ref="B128" r:id="rId116"/>
-    <hyperlink ref="B129" r:id="rId117"/>
-    <hyperlink ref="B130" r:id="rId118"/>
-    <hyperlink ref="B131" r:id="rId119"/>
-    <hyperlink ref="B132" r:id="rId120"/>
-    <hyperlink ref="B133" r:id="rId121"/>
-    <hyperlink ref="B134" r:id="rId122"/>
-    <hyperlink ref="B135" r:id="rId123"/>
-    <hyperlink ref="B136" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B155" r:id="rId141"/>
-    <hyperlink ref="B156" r:id="rId142"/>
-    <hyperlink ref="B157" r:id="rId143"/>
-    <hyperlink ref="B158" r:id="rId144"/>
-    <hyperlink ref="B159" r:id="rId145"/>
-    <hyperlink ref="B160" r:id="rId146"/>
-    <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
-    <hyperlink ref="B163" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B167" r:id="rId151"/>
-    <hyperlink ref="B168" r:id="rId152"/>
-    <hyperlink ref="B169" r:id="rId153"/>
-    <hyperlink ref="B170" r:id="rId154"/>
-    <hyperlink ref="B171" r:id="rId155"/>
-    <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
-    <hyperlink ref="B174" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171"/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId186"/>
-    <hyperlink ref="B205" r:id="rId187"/>
-    <hyperlink ref="B206" r:id="rId188"/>
-    <hyperlink ref="B207" r:id="rId189"/>
-    <hyperlink ref="B208" r:id="rId190"/>
-    <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
-    <hyperlink ref="B211" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B228" r:id="rId208"/>
-    <hyperlink ref="B229" r:id="rId209"/>
-    <hyperlink ref="B230" r:id="rId210"/>
-    <hyperlink ref="B231" r:id="rId211"/>
-    <hyperlink ref="B232" r:id="rId212"/>
-    <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
-    <hyperlink ref="B235" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227"/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B265" r:id="rId243"/>
-    <hyperlink ref="B266" r:id="rId244"/>
-    <hyperlink ref="B267" r:id="rId245"/>
-    <hyperlink ref="B268" r:id="rId246"/>
-    <hyperlink ref="B269" r:id="rId247"/>
-    <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
-    <hyperlink ref="B272" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B286" r:id="rId262"/>
-    <hyperlink ref="B287" r:id="rId263"/>
-    <hyperlink ref="B288" r:id="rId264"/>
-    <hyperlink ref="B289" r:id="rId265"/>
-    <hyperlink ref="B290" r:id="rId266"/>
-    <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
-    <hyperlink ref="B293" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272"/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B326" r:id="rId300"/>
-    <hyperlink ref="B327" r:id="rId301"/>
-    <hyperlink ref="B328" r:id="rId302"/>
-    <hyperlink ref="B329" r:id="rId303"/>
-    <hyperlink ref="B330" r:id="rId304"/>
-    <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
-    <hyperlink ref="B333" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B346" r:id="rId318"/>
-    <hyperlink ref="B347" r:id="rId319"/>
-    <hyperlink ref="B348" r:id="rId320"/>
-    <hyperlink ref="B349" r:id="rId321"/>
-    <hyperlink ref="B350" r:id="rId322"/>
-    <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
-    <hyperlink ref="B353" r:id="rId325"/>
-    <hyperlink ref="B356" r:id="rId326"/>
-    <hyperlink ref="B357" r:id="rId327"/>
-    <hyperlink ref="B358" r:id="rId328"/>
-    <hyperlink ref="B359" r:id="rId329"/>
-    <hyperlink ref="B360" r:id="rId330"/>
-    <hyperlink ref="B361" r:id="rId331"/>
-    <hyperlink ref="B362" r:id="rId332"/>
-    <hyperlink ref="B363" r:id="rId333"/>
-    <hyperlink ref="B364" r:id="rId334"/>
-    <hyperlink ref="B365" r:id="rId335"/>
-    <hyperlink ref="B366" r:id="rId336"/>
-    <hyperlink ref="B367" r:id="rId337"/>
-    <hyperlink ref="B368" r:id="rId338"/>
-    <hyperlink ref="B369" r:id="rId339"/>
-    <hyperlink ref="B370" r:id="rId340"/>
-    <hyperlink ref="B371" r:id="rId341"/>
-    <hyperlink ref="B372" r:id="rId342"/>
-    <hyperlink ref="B373" r:id="rId343"/>
-    <hyperlink ref="B374" r:id="rId344"/>
-    <hyperlink ref="B375" r:id="rId345"/>
-    <hyperlink ref="B376" r:id="rId346"/>
-    <hyperlink ref="B377" r:id="rId347"/>
-    <hyperlink ref="B378" r:id="rId348"/>
-    <hyperlink ref="B379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId350"/>
-    <hyperlink ref="B381" r:id="rId351"/>
-    <hyperlink ref="B382" r:id="rId352"/>
-    <hyperlink ref="B383" r:id="rId353"/>
-    <hyperlink ref="B384" r:id="rId354"/>
-    <hyperlink ref="B385" r:id="rId355"/>
-    <hyperlink ref="B386" r:id="rId356"/>
-    <hyperlink ref="B387" r:id="rId357"/>
-    <hyperlink ref="B388" r:id="rId358"/>
-    <hyperlink ref="B389" r:id="rId359"/>
-    <hyperlink ref="B390" r:id="rId360"/>
-    <hyperlink ref="B391" r:id="rId361"/>
-    <hyperlink ref="B392" r:id="rId362"/>
-    <hyperlink ref="B393" r:id="rId363"/>
-    <hyperlink ref="B394" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B396" r:id="rId366"/>
-    <hyperlink ref="B397" r:id="rId367"/>
-    <hyperlink ref="B398" r:id="rId368"/>
-    <hyperlink ref="B399" r:id="rId369"/>
-    <hyperlink ref="B402" r:id="rId370"/>
-    <hyperlink ref="B403" r:id="rId371"/>
-    <hyperlink ref="B404" r:id="rId372"/>
-    <hyperlink ref="B405" r:id="rId373"/>
-    <hyperlink ref="B406" r:id="rId374"/>
-    <hyperlink ref="B407" r:id="rId375"/>
-    <hyperlink ref="B410" r:id="rId376"/>
-    <hyperlink ref="B411" r:id="rId377"/>
-    <hyperlink ref="B412" r:id="rId378"/>
-    <hyperlink ref="B413" r:id="rId379"/>
-    <hyperlink ref="B414" r:id="rId380"/>
-    <hyperlink ref="B415" r:id="rId381"/>
-    <hyperlink ref="B416" r:id="rId382"/>
-    <hyperlink ref="B417" r:id="rId383"/>
-    <hyperlink ref="B418" r:id="rId384"/>
-    <hyperlink ref="B419" r:id="rId385"/>
-    <hyperlink ref="B420" r:id="rId386"/>
-    <hyperlink ref="B421" r:id="rId387"/>
-    <hyperlink ref="B422" r:id="rId388"/>
-    <hyperlink ref="B423" r:id="rId389"/>
-    <hyperlink ref="B424" r:id="rId390"/>
-    <hyperlink ref="B425" r:id="rId391"/>
-    <hyperlink ref="B426" r:id="rId392"/>
-    <hyperlink ref="B427" r:id="rId393"/>
-    <hyperlink ref="B428" r:id="rId394"/>
-    <hyperlink ref="B429" r:id="rId395"/>
-    <hyperlink ref="B430" r:id="rId396"/>
-    <hyperlink ref="B431" r:id="rId397"/>
-    <hyperlink ref="B432" r:id="rId398"/>
-    <hyperlink ref="B433" r:id="rId399"/>
-    <hyperlink ref="B434" r:id="rId400"/>
-    <hyperlink ref="B435" r:id="rId401"/>
-    <hyperlink ref="B436" r:id="rId402"/>
-    <hyperlink ref="B437" r:id="rId403"/>
-    <hyperlink ref="B438" r:id="rId404"/>
-    <hyperlink ref="B439" r:id="rId405"/>
-    <hyperlink ref="B440" r:id="rId406"/>
-    <hyperlink ref="B441" r:id="rId407"/>
-    <hyperlink ref="B442" r:id="rId408"/>
-    <hyperlink ref="B443" r:id="rId409"/>
-    <hyperlink ref="B444" r:id="rId410"/>
-    <hyperlink ref="B445" r:id="rId411"/>
-    <hyperlink ref="B446" r:id="rId412"/>
-    <hyperlink ref="B447" r:id="rId413"/>
-    <hyperlink ref="B448" r:id="rId414"/>
-    <hyperlink ref="B449" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B451" r:id="rId417"/>
-    <hyperlink ref="B452" r:id="rId418"/>
-    <hyperlink ref="B453" r:id="rId419"/>
-    <hyperlink ref="B454" r:id="rId420"/>
-    <hyperlink ref="B455" r:id="rId421"/>
-    <hyperlink ref="B456" r:id="rId422"/>
-    <hyperlink ref="B457" r:id="rId423"/>
-    <hyperlink ref="B458" r:id="rId424"/>
-    <hyperlink ref="B459" r:id="rId425"/>
-    <hyperlink ref="B460" r:id="rId426"/>
-    <hyperlink ref="B461" r:id="rId427"/>
-    <hyperlink ref="B462" r:id="rId428"/>
-    <hyperlink ref="B463" r:id="rId429"/>
-    <hyperlink ref="B464" r:id="rId430"/>
-    <hyperlink ref="B465" r:id="rId431"/>
-    <hyperlink ref="B466" r:id="rId432"/>
-    <hyperlink ref="B467" r:id="rId433"/>
-    <hyperlink ref="B468" r:id="rId434"/>
-    <hyperlink ref="B469" r:id="rId435"/>
-    <hyperlink ref="B472" r:id="rId436"/>
-    <hyperlink ref="B473" r:id="rId437"/>
-    <hyperlink ref="B474" r:id="rId438"/>
-    <hyperlink ref="B475" r:id="rId439"/>
-    <hyperlink ref="B476" r:id="rId440"/>
-    <hyperlink ref="B477" r:id="rId441"/>
-    <hyperlink ref="B478" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B481" r:id="rId445"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B105" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B106" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B107" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B108" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B109" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B110" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B111" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B112" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B113" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B114" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B115" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B116" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B117" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B118" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B119" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B120" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B121" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B122" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B123" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B124" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B125" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B126" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B130" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B131" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B132" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B133" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B134" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B135" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B136" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B356" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B357" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B358" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B359" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B360" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B361" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B362" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B363" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B364" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B365" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B366" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B367" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B368" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B369" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B370" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B371" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B372" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B373" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B374" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B375" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B376" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B377" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B378" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B380" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B381" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B382" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B383" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B384" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B385" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B386" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B387" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B388" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B389" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B390" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B391" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B392" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B393" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B394" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B396" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B397" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B398" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B402" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B403" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B404" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B405" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B406" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B407" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B410" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B411" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B412" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B413" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B414" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B415" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B416" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B417" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B418" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B419" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B420" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B421" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B422" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B423" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B424" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B425" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B426" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B427" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B428" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B429" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B430" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B431" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B432" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B433" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B434" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B435" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B436" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B437" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B438" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B439" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B440" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B441" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B442" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B443" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B444" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B445" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B446" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B447" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B448" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B449" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B451" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B452" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B453" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B454" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B455" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B456" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B457" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B458" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B459" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B460" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B461" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B462" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B463" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B464" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B466" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B467" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B468" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B469" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B472" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B473" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B474" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B475" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B476" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B477" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B478" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/1_FINAL450.xlsx
+++ b/1_FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Complete Data Structure &amp; Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE2EEA-C216-4D0F-8B27-A4DD1484A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFAC44-40D4-4BD1-9A0E-B825762E02FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="464">
   <si>
     <r>
       <rPr>
@@ -1427,12 +1427,15 @@
   <si>
     <t>Power Set</t>
   </si>
+  <si>
+    <t>YES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1550,8 +1553,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,6 +1587,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1596,7 +1613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1649,6 +1666,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,7 +1887,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1909,6 +1929,9 @@
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -7395,6 +7418,6 @@
     <hyperlink ref="B481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId446"/>
 </worksheet>
 </file>